--- a/biology/Zoologie/Chacophrys_pierottii/Chacophrys_pierottii.xlsx
+++ b/biology/Zoologie/Chacophrys_pierottii/Chacophrys_pierottii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chacophrys pierottii, unique représentant du genre Chacophrys, est une espèce d'amphibiens de la famille des Ceratophryidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chacophrys pierottii, unique représentant du genre Chacophrys, est une espèce d'amphibiens de la famille des Ceratophryidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre dans le Gran Chaco entre 70 et 200 m d'altitude[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre dans le Gran Chaco entre 70 et 200 m d'altitude, :
 en Argentine dans les provinces de Chaco, Formosa, Salta, Tucumán, Santiago del Estero, Catamarca, Córdoba, La Rioja et San Luis ;
 en Bolivie dans les départements de Tarija, Chuquisaca et Santa Cruz ;
 au Paraguay dans les Départements de Boquerón, Alto Paraguay et Presidente Hayes.</t>
@@ -544,9 +558,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Serafin Angel Pierotti[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Serafin Angel Pierotti.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Vellard, 1948 : Batracios del Chaco argentino. Acta zoológica lilloana, vol. 5, p. 137-174.
 Reig &amp; Limeses, 1963 : Un nuevo género de anuros ceratofrínidos del distrito chaqueño. Physis, vol. 24, p. 113–128.</t>
